--- a/imports/Herramienta.xlsx
+++ b/imports/Herramienta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\OPERACIÓN\GLOSARIO-SOP-CORRECTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83A142D-5419-4CF0-A9C2-3420903B635E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6B8686-B2FD-45F2-B580-CEC6D38B5ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Kit" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Herramienta!$A$2:$H$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Herramienta!$A$2:$G$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="231">
   <si>
     <t>HE</t>
   </si>
@@ -403,9 +403,6 @@
     <t>GUANTES</t>
   </si>
   <si>
-    <t>pendiente</t>
-  </si>
-  <si>
     <t>No se usa</t>
   </si>
   <si>
@@ -445,12 +442,6 @@
     <t>SENALETICA</t>
   </si>
   <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO </t>
-  </si>
-  <si>
     <t>Kit Senaletica</t>
   </si>
   <si>
@@ -580,30 +571,15 @@
     <t>Señaletica Humedo</t>
   </si>
   <si>
-    <t>KT-SP-001-P</t>
-  </si>
-  <si>
-    <t>SUPERFICIE</t>
-  </si>
-  <si>
-    <t>KT-BS-001-P</t>
-  </si>
-  <si>
     <t>Kit Basura</t>
   </si>
   <si>
     <t>KT-SE-001</t>
   </si>
   <si>
-    <t>KT-VI-001-P</t>
-  </si>
-  <si>
     <t>Kit Vidrios Superior</t>
   </si>
   <si>
-    <t>KT-VI-002-P</t>
-  </si>
-  <si>
     <t>Kit Vidrios Inferior</t>
   </si>
   <si>
@@ -616,15 +592,9 @@
     <t>KT-TL-001</t>
   </si>
   <si>
-    <t>KT-TL-002-B</t>
-  </si>
-  <si>
     <t>Kit WC interior</t>
   </si>
   <si>
-    <t>003</t>
-  </si>
-  <si>
     <t>KT-TL-003</t>
   </si>
   <si>
@@ -637,15 +607,6 @@
     <t>Kit WC Interior General</t>
   </si>
   <si>
-    <t>KT-TL-002-MP</t>
-  </si>
-  <si>
-    <t>Kit WC Exterior Medio/Profundo</t>
-  </si>
-  <si>
-    <t>KT-TL-004-P</t>
-  </si>
-  <si>
     <t>Kit Tallar Lavabo Profundo</t>
   </si>
   <si>
@@ -656,6 +617,123 @@
   </si>
   <si>
     <t>001</t>
+  </si>
+  <si>
+    <t>uso</t>
+  </si>
+  <si>
+    <t>CONSUMIBLES</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Colocar Senaletica</t>
+  </si>
+  <si>
+    <t>Todos Niveles</t>
+  </si>
+  <si>
+    <t>Sacar Basura</t>
+  </si>
+  <si>
+    <t>Profundo</t>
+  </si>
+  <si>
+    <t>Sacudir Superficies</t>
+  </si>
+  <si>
+    <t>Barrer</t>
+  </si>
+  <si>
+    <t>Tallar Baño - WC exterior</t>
+  </si>
+  <si>
+    <t>Tallar Baño - WC Interior</t>
+  </si>
+  <si>
+    <t>Limpiar Vidrios Superior</t>
+  </si>
+  <si>
+    <t>Limpiar Vidrios Inferior</t>
+  </si>
+  <si>
+    <t>Tallar Baño - Elementos</t>
+  </si>
+  <si>
+    <t>Tallar Baño - Lavabo</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>Kit WC Exterior Medio</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>fraccion_id</t>
+  </si>
+  <si>
+    <t>nivel_limpieza_id</t>
+  </si>
+  <si>
+    <t>KT-BS-001</t>
+  </si>
+  <si>
+    <t>FR-SE-001</t>
+  </si>
+  <si>
+    <t>FR-BS-001</t>
+  </si>
+  <si>
+    <t>KT-SP-001</t>
+  </si>
+  <si>
+    <t>FR-SP-001</t>
+  </si>
+  <si>
+    <t>KT-VI-001</t>
+  </si>
+  <si>
+    <t>KT-VI-002</t>
+  </si>
+  <si>
+    <t>FR-VI-001</t>
+  </si>
+  <si>
+    <t>FR-BA-001</t>
+  </si>
+  <si>
+    <t>FR-TL-001</t>
+  </si>
+  <si>
+    <t>KT-TL-002</t>
+  </si>
+  <si>
+    <t>KT-TL-004</t>
+  </si>
+  <si>
+    <t>KT-TL-005</t>
+  </si>
+  <si>
+    <t>Kit WC Exterior Profundo</t>
+  </si>
+  <si>
+    <t>KT-TL-006</t>
+  </si>
+  <si>
+    <t>FR-TR-001</t>
+  </si>
+  <si>
+    <t>Kit Tallar Elementos</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trapear </t>
   </si>
 </sst>
 </file>
@@ -703,7 +781,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -758,14 +836,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -845,6 +917,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -863,9 +944,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -875,7 +953,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -906,13 +983,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,26 +1022,74 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1517,10 +1645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1531,76 +1659,69 @@
     <col min="4" max="4" width="10.73046875" customWidth="1"/>
     <col min="6" max="6" width="12.59765625" customWidth="1"/>
     <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="8.1328125" customWidth="1"/>
-    <col min="10" max="10" width="13.59765625" customWidth="1"/>
-    <col min="12" max="12" width="6.73046875" customWidth="1"/>
-    <col min="13" max="14" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.1328125" customWidth="1"/>
+    <col min="9" max="9" width="13.59765625" customWidth="1"/>
+    <col min="11" max="11" width="6.73046875" customWidth="1"/>
+    <col min="12" max="13" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="27" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="M1" s="28" t="s">
+      <c r="J1" s="26"/>
+      <c r="L1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="28"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+      <c r="M1" s="27"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>120</v>
+      <c r="I2" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="L2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="M2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
@@ -1608,9 +1729,9 @@
         <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1619,25 +1740,24 @@
       <c r="F3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="10">
         <v>1</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="M3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -1645,7 +1765,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>69</v>
@@ -1656,25 +1776,24 @@
       <c r="F4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="M4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1682,9 +1801,9 @@
         <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1693,19 +1812,18 @@
       <c r="F5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1713,9 +1831,9 @@
         <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1724,19 +1842,18 @@
       <c r="F6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="J6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>95</v>
       </c>
@@ -1744,9 +1861,9 @@
         <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1755,20 +1872,19 @@
       <c r="F7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="J7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K7" s="3"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>96</v>
       </c>
@@ -1776,9 +1892,9 @@
         <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1787,20 +1903,19 @@
       <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1808,9 +1923,9 @@
         <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1819,20 +1934,19 @@
       <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <v>1</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>90</v>
       </c>
@@ -1840,9 +1954,9 @@
         <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1851,20 +1965,19 @@
       <c r="F10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>1</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="1:14" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1872,9 +1985,9 @@
         <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1883,18 +1996,17 @@
       <c r="F11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <v>2</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="J11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>94</v>
       </c>
@@ -1902,9 +2014,9 @@
         <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1913,18 +2025,17 @@
       <c r="F12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>1</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="J12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>93</v>
       </c>
@@ -1932,9 +2043,9 @@
         <v>91</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1943,18 +2054,17 @@
       <c r="F13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <v>1</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="J13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1962,9 +2072,9 @@
         <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1973,18 +2083,17 @@
       <c r="F14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>1</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="J14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1992,9 +2101,9 @@
         <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2003,18 +2112,17 @@
       <c r="F15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="J15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
@@ -2022,9 +2130,9 @@
         <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -2033,18 +2141,17 @@
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>3</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="J16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>98</v>
       </c>
@@ -2052,9 +2159,9 @@
         <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2063,18 +2170,17 @@
       <c r="F17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="10">
         <v>4</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="J17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>99</v>
       </c>
@@ -2082,9 +2188,9 @@
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2093,18 +2199,17 @@
       <c r="F18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="10">
         <v>5</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="I18" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -2112,9 +2217,9 @@
         <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -2123,18 +2228,17 @@
       <c r="F19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="10">
         <v>1</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="I19" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>100</v>
       </c>
@@ -2142,9 +2246,9 @@
         <v>79</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -2153,18 +2257,17 @@
       <c r="F20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="10">
         <v>2</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="I20" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -2172,9 +2275,9 @@
         <v>119</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D21" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -2183,18 +2286,17 @@
       <c r="F21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="10">
         <v>1</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="I21" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K21" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -2202,9 +2304,9 @@
         <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -2213,18 +2315,17 @@
       <c r="F22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="10">
         <v>2</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="I22" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K22" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
@@ -2232,9 +2333,9 @@
         <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D23" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -2243,18 +2344,17 @@
       <c r="F23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="10">
         <v>1</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="I23" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K23" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
@@ -2262,9 +2362,9 @@
         <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -2273,18 +2373,17 @@
       <c r="F24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="10">
         <v>2</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="I24" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K24" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>102</v>
       </c>
@@ -2292,9 +2391,9 @@
         <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D25" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -2303,18 +2402,17 @@
       <c r="F25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="10">
         <v>1</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="I25" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>105</v>
       </c>
@@ -2322,9 +2420,9 @@
         <v>83</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D26" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -2333,18 +2431,17 @@
       <c r="F26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="10">
         <v>1</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="I26" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>104</v>
       </c>
@@ -2354,7 +2451,7 @@
       <c r="C27" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -2363,18 +2460,17 @@
       <c r="F27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="10">
         <v>1</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="I27" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K27" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -2382,9 +2478,9 @@
         <v>51</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D28" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -2393,18 +2489,17 @@
       <c r="F28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="10">
         <v>1</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="I28" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K28" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2412,9 +2507,9 @@
         <v>45</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -2423,14 +2518,13 @@
       <c r="F29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="10">
         <v>1</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="I29"/>
       <c r="J29"/>
-      <c r="K29"/>
-    </row>
-    <row r="30" spans="1:11" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:10" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>107</v>
       </c>
@@ -2438,9 +2532,9 @@
         <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D30" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -2449,14 +2543,13 @@
       <c r="F30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="10">
         <v>2</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="I30"/>
       <c r="J30"/>
-      <c r="K30"/>
-    </row>
-    <row r="31" spans="1:11" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:10" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>108</v>
       </c>
@@ -2464,9 +2557,9 @@
         <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -2475,14 +2568,13 @@
       <c r="F31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="10">
         <v>3</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="I31"/>
       <c r="J31"/>
-      <c r="K31"/>
-    </row>
-    <row r="32" spans="1:11" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:10" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>109</v>
       </c>
@@ -2492,7 +2584,7 @@
       <c r="C32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -2501,14 +2593,13 @@
       <c r="F32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="10">
         <v>4</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="I32"/>
       <c r="J32"/>
-      <c r="K32"/>
-    </row>
-    <row r="33" spans="1:14" s="10" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:13" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>112</v>
       </c>
@@ -2516,9 +2607,9 @@
         <v>110</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D33" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -2527,14 +2618,13 @@
       <c r="F33" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="10">
         <v>1</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="I33"/>
       <c r="J33"/>
-      <c r="K33"/>
-    </row>
-    <row r="34" spans="1:14" s="10" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:13" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -2542,9 +2632,9 @@
         <v>119</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D34" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -2553,14 +2643,13 @@
       <c r="F34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="10">
         <v>2</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="I34"/>
       <c r="J34"/>
-      <c r="K34"/>
-    </row>
-    <row r="35" spans="1:14" s="10" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:13" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
@@ -2568,9 +2657,9 @@
         <v>119</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -2579,14 +2668,13 @@
       <c r="F35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="10">
         <v>3</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="I35"/>
       <c r="J35"/>
-      <c r="K35"/>
-    </row>
-    <row r="36" spans="1:14" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:13" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
@@ -2594,9 +2682,9 @@
         <v>45</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D36" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -2605,14 +2693,13 @@
       <c r="F36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="10">
         <v>2</v>
       </c>
-      <c r="H36" s="21"/>
+      <c r="I36"/>
       <c r="J36"/>
-      <c r="K36"/>
-    </row>
-    <row r="37" spans="1:14" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:13" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>113</v>
       </c>
@@ -2620,9 +2707,9 @@
         <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -2631,14 +2718,13 @@
       <c r="F37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="10">
         <v>3</v>
       </c>
-      <c r="H37" s="21"/>
+      <c r="I37"/>
       <c r="J37"/>
-      <c r="K37"/>
-    </row>
-    <row r="38" spans="1:14" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:13" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>114</v>
       </c>
@@ -2646,9 +2732,9 @@
         <v>118</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -2657,16 +2743,15 @@
       <c r="F38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="10">
         <v>2</v>
       </c>
-      <c r="H38" s="21"/>
+      <c r="I38"/>
       <c r="J38"/>
-      <c r="K38"/>
+      <c r="L38"/>
       <c r="M38"/>
-      <c r="N38"/>
-    </row>
-    <row r="39" spans="1:14" s="10" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>115</v>
       </c>
@@ -2674,9 +2759,9 @@
         <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D39" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -2685,16 +2770,15 @@
       <c r="F39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="10">
         <v>1</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="I39"/>
       <c r="J39"/>
-      <c r="K39"/>
+      <c r="L39"/>
       <c r="M39"/>
-      <c r="N39"/>
-    </row>
-    <row r="40" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>68</v>
       </c>
@@ -2702,9 +2786,9 @@
         <v>81</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D40" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -2713,12 +2797,11 @@
       <c r="F40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="10">
         <v>1</v>
       </c>
-      <c r="H40" s="21"/>
-    </row>
-    <row r="41" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>116</v>
       </c>
@@ -2726,9 +2809,9 @@
         <v>81</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D41" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -2737,12 +2820,11 @@
       <c r="F41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="10">
         <v>2</v>
       </c>
-      <c r="H41" s="21"/>
-    </row>
-    <row r="42" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>117</v>
       </c>
@@ -2750,9 +2832,9 @@
         <v>81</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -2761,70 +2843,69 @@
       <c r="F42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="10">
         <v>3</v>
       </c>
-      <c r="H42" s="21"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A43" s="23"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A43" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H42" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:G42" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A42">
-    <cfRule type="duplicateValues" dxfId="44" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="43" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="42" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="41" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36 A1:A3 A5:A33 A38:A1048576">
-    <cfRule type="duplicateValues" dxfId="40" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="39" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="38" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="36" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="6"/>
     <cfRule type="duplicateValues" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
     <cfRule type="duplicateValues" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:K22">
-    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
+  <conditionalFormatting sqref="I1:J22">
+    <cfRule type="duplicateValues" dxfId="39" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:K22">
+  <conditionalFormatting sqref="I3:J22">
     <cfRule type="duplicateValues" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:K28">
-    <cfRule type="duplicateValues" dxfId="29" priority="11"/>
+  <conditionalFormatting sqref="I3:J28">
+    <cfRule type="duplicateValues" dxfId="38" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:K43">
-    <cfRule type="duplicateValues" dxfId="28" priority="26"/>
+  <conditionalFormatting sqref="I3:J43">
+    <cfRule type="duplicateValues" dxfId="37" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23:K24">
-    <cfRule type="duplicateValues" dxfId="27" priority="19"/>
+  <conditionalFormatting sqref="I23:J24">
+    <cfRule type="duplicateValues" dxfId="36" priority="19"/>
     <cfRule type="duplicateValues" priority="20"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2834,799 +2915,892 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A4" zoomScale="88" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.46484375" customWidth="1"/>
     <col min="2" max="2" width="13.19921875" customWidth="1"/>
     <col min="3" max="3" width="26.796875" customWidth="1"/>
     <col min="4" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" customWidth="1"/>
-    <col min="8" max="8" width="7.06640625" customWidth="1"/>
-    <col min="9" max="10" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.46484375" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" customWidth="1"/>
+    <col min="9" max="9" width="7.06640625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="22" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="H1" s="36"/>
+      <c r="J1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="L1" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="30"/>
-    </row>
-    <row r="2" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="18" t="s">
+      <c r="K1" s="29"/>
+    </row>
+    <row r="2" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="G2" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="17">
+      <c r="E3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="15">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>127</v>
+      <c r="G3" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="E4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="15">
         <v>1</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="E5" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="15">
         <v>1</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>129</v>
+      <c r="G5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="E6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="15">
         <v>1</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>130</v>
+      <c r="G6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="17">
+      <c r="E7" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="15">
         <v>1</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>131</v>
+      <c r="G7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="14" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:11" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="17">
+      <c r="E8" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="15">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>132</v>
+      <c r="G8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="24">
+      <c r="E9" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="21">
         <v>2</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="13" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K9" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="11" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="15">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M10" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="13" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" s="11" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="13" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="B12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="11" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>197</v>
+      <c r="C12" s="38" t="s">
+        <v>187</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="17">
+        <v>123</v>
+      </c>
+      <c r="F12" s="15">
         <v>1</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="13" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="34" t="s">
+      <c r="G12" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="13" spans="1:11" s="11" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>196</v>
+      <c r="C13" s="38" t="s">
+        <v>186</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="13" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="11" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>195</v>
+      <c r="C14" s="38" t="s">
+        <v>185</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="24">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I14"/>
-      <c r="J14"/>
-    </row>
-    <row r="15" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="21">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>199</v>
+      <c r="C15" s="38" t="s">
+        <v>208</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="24">
-        <v>2</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="21">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>199</v>
+      <c r="C16" s="38" t="s">
+        <v>208</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="24">
-        <v>2</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="21">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="34" t="s">
-        <v>199</v>
+      <c r="C17" s="38" t="s">
+        <v>208</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="24">
-        <v>2</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+      <c r="F17" s="21">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="B18" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>201</v>
+      <c r="C18" s="38" t="s">
+        <v>225</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="38">
-        <v>4</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+      <c r="F18" s="21">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="B19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>201</v>
+      <c r="C19" s="38" t="s">
+        <v>225</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="38">
-        <v>4</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+      <c r="F19" s="21">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="B20" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>201</v>
+      <c r="C20" s="38" t="s">
+        <v>225</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="38">
-        <v>4</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+      <c r="F20" s="21">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>203</v>
+        <v>226</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>188</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="21">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>203</v>
+        <v>226</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>188</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="21">
+        <v>6</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>203</v>
+        <v>226</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>188</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="37" t="s">
-        <v>202</v>
+      <c r="E23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="21">
+        <v>6</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>203</v>
+        <v>95</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="36" t="s">
-        <v>204</v>
+      <c r="F24" s="23" t="s">
+        <v>191</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="37" t="s">
-        <v>202</v>
+        <v>230</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>203</v>
+        <v>96</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="36" t="s">
-        <v>204</v>
+      <c r="F25" s="23" t="s">
+        <v>191</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="1048576" spans="7:7" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1048576" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G1048576" s="1"/>
+      <c r="H1048576" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:J9">
-    <cfRule type="duplicateValues" dxfId="26" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M8 M10">
-    <cfRule type="duplicateValues" dxfId="25" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11">
-    <cfRule type="duplicateValues" dxfId="24" priority="39"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="23" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="22" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="21" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="20" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="19" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="18" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="17" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="16" priority="26"/>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="duplicateValues" dxfId="27" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="25" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="duplicateValues" dxfId="23" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="duplicateValues" dxfId="21" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K8 K10">
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3634,145 +3808,394 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.06640625" customWidth="1"/>
-    <col min="2" max="2" width="27.59765625" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" customWidth="1"/>
-    <col min="5" max="5" width="20.73046875" customWidth="1"/>
-    <col min="6" max="6" width="14.1328125" customWidth="1"/>
-    <col min="7" max="7" width="5.46484375" customWidth="1"/>
-    <col min="8" max="8" width="16.3984375" customWidth="1"/>
+    <col min="1" max="2" width="12.06640625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" customWidth="1"/>
+    <col min="6" max="6" width="13.265625" customWidth="1"/>
+    <col min="7" max="7" width="9.06640625" customWidth="1"/>
+    <col min="8" max="8" width="12.46484375" customWidth="1"/>
+    <col min="9" max="9" width="8.59765625" customWidth="1"/>
+    <col min="10" max="10" width="5.46484375" customWidth="1"/>
+    <col min="11" max="11" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="33"/>
+      <c r="H1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E2" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="22" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="B9" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E9" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="37">
+        <v>1</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+    <row r="12" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="37">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="E14" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="34" t="s">
+      <c r="B15" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="34" t="s">
+      <c r="E15" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="17" ht="29.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
+  <conditionalFormatting sqref="I3:I8 I10">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/imports/Herramienta.xlsx
+++ b/imports/Herramienta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6B8686-B2FD-45F2-B580-CEC6D38B5ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4C700F-6692-49F6-8CE2-538606602B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="235">
   <si>
     <t>HE</t>
   </si>
@@ -734,6 +734,18 @@
   </si>
   <si>
     <t xml:space="preserve">Trapear </t>
+  </si>
+  <si>
+    <t>KT-SA-001</t>
+  </si>
+  <si>
+    <t>Kit Sacudir</t>
+  </si>
+  <si>
+    <t>Sacudir</t>
+  </si>
+  <si>
+    <t>FR-SA-001</t>
   </si>
 </sst>
 </file>
@@ -930,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -995,6 +1007,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1022,29 +1037,27 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1647,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A3" zoomScale="76" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1666,25 +1679,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="I1" s="26" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="I1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="L1" s="27" t="s">
+      <c r="J1" s="27"/>
+      <c r="L1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="27"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
@@ -2859,53 +2872,53 @@
     <mergeCell ref="L1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A42">
-    <cfRule type="duplicateValues" dxfId="53" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="52" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="51" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="50" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36 A1:A3 A5:A33 A38:A1048576">
-    <cfRule type="duplicateValues" dxfId="49" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="48" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="47" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="45" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="6"/>
     <cfRule type="duplicateValues" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="2"/>
     <cfRule type="duplicateValues" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J22">
-    <cfRule type="duplicateValues" dxfId="39" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J22">
     <cfRule type="duplicateValues" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J28">
-    <cfRule type="duplicateValues" dxfId="38" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J43">
-    <cfRule type="duplicateValues" dxfId="37" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:J24">
-    <cfRule type="duplicateValues" dxfId="36" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="19"/>
     <cfRule type="duplicateValues" priority="20"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2917,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="88" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A16" zoomScale="88" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2935,24 +2948,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="35" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="J1" s="28" t="s">
+      <c r="H1" s="35"/>
+      <c r="J1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="29"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
@@ -3275,13 +3288,13 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="11" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="22" t="s">
         <v>187</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -3307,13 +3320,13 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="11" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="22" t="s">
         <v>186</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -3333,13 +3346,13 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="11" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="22" t="s">
         <v>185</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -3359,13 +3372,13 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="22" t="s">
         <v>208</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -3385,13 +3398,13 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="22" t="s">
         <v>208</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -3411,13 +3424,13 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="22" t="s">
         <v>208</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -3437,13 +3450,13 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="22" t="s">
         <v>225</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -3463,13 +3476,13 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="22" t="s">
         <v>225</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -3489,13 +3502,13 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="22" t="s">
         <v>225</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -3515,13 +3528,13 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="1" t="s">
         <v>188</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -3541,13 +3554,13 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="1" t="s">
         <v>188</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -3567,13 +3580,13 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="1" t="s">
         <v>188</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -3722,9 +3735,42 @@
         <v>196</v>
       </c>
     </row>
+    <row r="29" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="34" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1048576" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G1048576" s="1"/>
-      <c r="H1048576" s="34"/>
+      <c r="H1048576" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3734,73 +3780,77 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="35" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
+    <cfRule type="duplicateValues" dxfId="35" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
     <cfRule type="duplicateValues" dxfId="33" priority="38"/>
     <cfRule type="duplicateValues" dxfId="32" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="31" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="37"/>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="duplicateValues" dxfId="31" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="29" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="35"/>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="duplicateValues" dxfId="29" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="27" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="25" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="23" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="21" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K8 K10">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="11"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3811,7 +3861,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3829,20 +3879,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="H1" s="28" t="s">
+      <c r="F1" s="24"/>
+      <c r="H1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="29"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
@@ -4026,7 +4076,7 @@
       <c r="A9" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C9" s="19"/>
@@ -4050,7 +4100,7 @@
       <c r="A10" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C10" s="1"/>
@@ -4074,10 +4124,10 @@
       <c r="A11" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="22" t="s">
@@ -4100,7 +4150,7 @@
       <c r="A12" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C12" s="1">
@@ -4126,13 +4176,13 @@
       <c r="A13" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="22" t="s">
         <v>225</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -4146,10 +4196,10 @@
       <c r="A14" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -4166,7 +4216,7 @@
       <c r="A15" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C15" s="19"/>
@@ -4180,7 +4230,24 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
     <row r="17" ht="29.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="2">

--- a/imports/Herramienta.xlsx
+++ b/imports/Herramienta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4C700F-6692-49F6-8CE2-538606602B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBEE59E-8DF8-485F-B042-295DC6921801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Herramienta" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="239">
   <si>
     <t>HE</t>
   </si>
@@ -746,6 +746,18 @@
   </si>
   <si>
     <t>FR-SA-001</t>
+  </si>
+  <si>
+    <t>KT-VI-003</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Kit Vidrios</t>
+  </si>
+  <si>
+    <t>Limpiar Vidrios</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="76" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="76" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -2930,8 +2942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="88" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3761,13 +3773,40 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
     <row r="31" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="32" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="34" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" spans="6:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="6:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="6:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="6:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1048576" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G1048576" s="1"/>
       <c r="H1048576" s="20"/>
@@ -3858,10 +3897,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3878,7 +3917,7 @@
     <col min="11" max="11" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
         <v>22</v>
       </c>
@@ -3894,7 +3933,7 @@
       </c>
       <c r="I1" s="30"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
@@ -3920,7 +3959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>177</v>
       </c>
@@ -3944,7 +3983,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>212</v>
       </c>
@@ -3970,7 +4009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>215</v>
       </c>
@@ -3996,7 +4035,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>217</v>
       </c>
@@ -4022,7 +4061,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>218</v>
       </c>
@@ -4048,7 +4087,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>180</v>
       </c>
@@ -4072,7 +4111,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="22" t="s">
         <v>182</v>
       </c>
@@ -4096,7 +4135,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="22" t="s">
         <v>222</v>
       </c>
@@ -4120,7 +4159,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="22" t="s">
         <v>184</v>
       </c>
@@ -4146,7 +4185,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="22" t="s">
         <v>223</v>
       </c>
@@ -4172,7 +4211,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>224</v>
       </c>
@@ -4192,7 +4231,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>226</v>
       </c>
@@ -4211,8 +4250,9 @@
       <c r="F14" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="22" t="s">
         <v>189</v>
       </c>
@@ -4230,7 +4270,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="22" t="s">
         <v>231</v>
       </c>
@@ -4248,7 +4288,24 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" ht="29.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>

--- a/imports/Herramienta.xlsx
+++ b/imports/Herramienta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBEE59E-8DF8-485F-B042-295DC6921801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E390F771-4D59-4712-8DCB-570532A2C784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Kit" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Herramienta!$A$2:$G$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Herramienta!$A$2:$G$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="252">
   <si>
     <t>HE</t>
   </si>
@@ -361,9 +361,6 @@
     <t>HE-TP-001</t>
   </si>
   <si>
-    <t>Mop de polvo</t>
-  </si>
-  <si>
     <t>HE-MO-002</t>
   </si>
   <si>
@@ -580,9 +577,6 @@
     <t>Kit Vidrios Superior</t>
   </si>
   <si>
-    <t>Kit Vidrios Inferior</t>
-  </si>
-  <si>
     <t>KT-BA-001</t>
   </si>
   <si>
@@ -652,9 +646,6 @@
     <t>Tallar Baño - WC Interior</t>
   </si>
   <si>
-    <t>Limpiar Vidrios Superior</t>
-  </si>
-  <si>
     <t>Limpiar Vidrios Inferior</t>
   </si>
   <si>
@@ -748,9 +739,6 @@
     <t>FR-SA-001</t>
   </si>
   <si>
-    <t>KT-VI-003</t>
-  </si>
-  <si>
     <t>003</t>
   </si>
   <si>
@@ -758,6 +746,57 @@
   </si>
   <si>
     <t>Limpiar Vidrios</t>
+  </si>
+  <si>
+    <t>Kit Electronicos</t>
+  </si>
+  <si>
+    <t>KT-SA-002</t>
+  </si>
+  <si>
+    <t>Sacudir Electronicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kit Electronicos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacudir Electronicos </t>
+  </si>
+  <si>
+    <t>KT-SA-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacudir No Reusables </t>
+  </si>
+  <si>
+    <t>Mop Polvo</t>
+  </si>
+  <si>
+    <t>Kit Paño Vidrios</t>
+  </si>
+  <si>
+    <t>Kit Multiusos</t>
+  </si>
+  <si>
+    <t>Sacudir Multiusos</t>
+  </si>
+  <si>
+    <t>ACOMODAR</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>KT-TA-001</t>
+  </si>
+  <si>
+    <t>Kit Lavar Trastes</t>
+  </si>
+  <si>
+    <t>Lavar Trastes</t>
+  </si>
+  <si>
+    <t>FR-TA-001</t>
   </si>
 </sst>
 </file>
@@ -954,7 +993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1055,11 +1094,62 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="65">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1670,10 +1760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="76" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A12" zoomScale="76" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A14" activeCellId="1" sqref="A25 A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1754,7 +1844,7 @@
         <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>69</v>
@@ -1779,7 +1869,7 @@
         <v>58</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1790,7 +1880,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>69</v>
@@ -1815,7 +1905,7 @@
         <v>59</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1826,7 +1916,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>69</v>
@@ -1856,7 +1946,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>69</v>
@@ -1886,7 +1976,7 @@
         <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>69</v>
@@ -1914,10 +2004,10 @@
         <v>96</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>69</v>
@@ -1948,7 +2038,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>69</v>
@@ -1979,7 +2069,7 @@
         <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>69</v>
@@ -2010,7 +2100,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>69</v>
@@ -2039,7 +2129,7 @@
         <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>69</v>
@@ -2068,7 +2158,7 @@
         <v>91</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>69</v>
@@ -2097,7 +2187,7 @@
         <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>69</v>
@@ -2126,7 +2216,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>69</v>
@@ -2155,7 +2245,7 @@
         <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>69</v>
@@ -2184,7 +2274,7 @@
         <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>69</v>
@@ -2213,7 +2303,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>69</v>
@@ -2228,7 +2318,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>24</v>
@@ -2242,7 +2332,7 @@
         <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>69</v>
@@ -2271,7 +2361,7 @@
         <v>79</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>69</v>
@@ -2297,10 +2387,10 @@
         <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>69</v>
@@ -2329,7 +2419,7 @@
         <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>69</v>
@@ -2358,7 +2448,7 @@
         <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>69</v>
@@ -2387,7 +2477,7 @@
         <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>69</v>
@@ -2416,7 +2506,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>69</v>
@@ -2445,7 +2535,7 @@
         <v>83</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>69</v>
@@ -2489,10 +2579,10 @@
         <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -2503,7 +2593,7 @@
         <v>51</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>69</v>
@@ -2532,7 +2622,7 @@
         <v>45</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>69</v>
@@ -2551,13 +2641,13 @@
     </row>
     <row r="30" spans="1:10" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>69</v>
@@ -2576,13 +2666,13 @@
     </row>
     <row r="31" spans="1:10" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>69</v>
@@ -2601,13 +2691,13 @@
     </row>
     <row r="32" spans="1:10" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>69</v>
@@ -2626,13 +2716,13 @@
     </row>
     <row r="33" spans="1:13" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>69</v>
@@ -2641,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G33" s="10">
         <v>1</v>
@@ -2654,10 +2744,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>69</v>
@@ -2679,10 +2769,10 @@
         <v>65</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>69</v>
@@ -2707,7 +2797,7 @@
         <v>45</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>69</v>
@@ -2726,13 +2816,13 @@
     </row>
     <row r="37" spans="1:13" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>69</v>
@@ -2751,13 +2841,13 @@
     </row>
     <row r="38" spans="1:13" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>69</v>
@@ -2778,13 +2868,13 @@
     </row>
     <row r="39" spans="1:13" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>69</v>
@@ -2811,7 +2901,7 @@
         <v>81</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>69</v>
@@ -2828,13 +2918,13 @@
     </row>
     <row r="41" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>69</v>
@@ -2851,13 +2941,13 @@
     </row>
     <row r="42" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>69</v>
@@ -2872,9 +2962,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="20"/>
     </row>
+    <row r="44" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <autoFilter ref="A2:G42" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="4">
@@ -2884,53 +2975,53 @@
     <mergeCell ref="L1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A42">
-    <cfRule type="duplicateValues" dxfId="55" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="54" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="53" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="52" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36 A1:A3 A5:A33 A38:A1048576">
-    <cfRule type="duplicateValues" dxfId="51" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="50" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="49" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="47" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="6"/>
     <cfRule type="duplicateValues" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
     <cfRule type="duplicateValues" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J22">
-    <cfRule type="duplicateValues" dxfId="41" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J22">
     <cfRule type="duplicateValues" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J28">
-    <cfRule type="duplicateValues" dxfId="40" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J43">
-    <cfRule type="duplicateValues" dxfId="39" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:J24">
-    <cfRule type="duplicateValues" dxfId="38" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="19"/>
     <cfRule type="duplicateValues" priority="20"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2940,10 +3031,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:K1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="88" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2952,7 +3043,7 @@
     <col min="2" max="2" width="13.19921875" customWidth="1"/>
     <col min="3" max="3" width="26.796875" customWidth="1"/>
     <col min="4" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.3984375" customWidth="1"/>
     <col min="8" max="8" width="15.59765625" customWidth="1"/>
     <col min="9" max="9" width="7.06640625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
@@ -2974,10 +3065,10 @@
         <v>20</v>
       </c>
       <c r="H1" s="35"/>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="30"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
@@ -2993,13 +3084,13 @@
         <v>13</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>15</v>
@@ -3013,13 +3104,13 @@
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>23</v>
@@ -3031,45 +3122,45 @@
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" s="15">
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>24</v>
@@ -3077,31 +3168,31 @@
     </row>
     <row r="5" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F5" s="15">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>56</v>
@@ -3109,63 +3200,63 @@
     </row>
     <row r="6" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" s="15">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" s="15">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>39</v>
@@ -3173,42 +3264,42 @@
     </row>
     <row r="8" spans="1:11" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="15">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>179</v>
@@ -3216,20 +3307,20 @@
       <c r="D9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="21">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>204</v>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>92</v>
@@ -3237,13 +3328,13 @@
     </row>
     <row r="10" spans="1:11" s="11" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>23</v>
@@ -3255,348 +3346,354 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="11" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="22" t="s">
         <v>180</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>200</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="11" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="22" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="15">
-        <v>1</v>
+        <v>122</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>226</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>202</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="11" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="22" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>229</v>
+        <v>122</v>
+      </c>
+      <c r="F13" s="21">
+        <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="11" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>205</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="11" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>185</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F14" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F15" s="21">
         <v>4</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" s="21">
         <v>4</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F17" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" s="21">
         <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F19" s="21">
         <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>225</v>
+        <v>60</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F20" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F21" s="21">
         <v>6</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F22" s="21">
         <v>6</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>226</v>
+      <c r="A23" s="22" t="s">
+        <v>187</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>188</v>
@@ -3605,27 +3702,27 @@
         <v>23</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="21">
-        <v>6</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>198</v>
+        <v>56</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>23</v>
@@ -3634,24 +3731,24 @@
         <v>56</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>23</v>
@@ -3660,24 +3757,24 @@
         <v>56</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>23</v>
@@ -3686,24 +3783,24 @@
         <v>56</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>23</v>
@@ -3712,104 +3809,177 @@
         <v>56</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="22" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>230</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="22" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>204</v>
+        <v>226</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" spans="6:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="6:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="6:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="6:6" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="1048576" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G1048576" s="1"/>
-      <c r="H1048576" s="20"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1048575" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G1048575" s="1"/>
+      <c r="H1048575" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3818,78 +3988,92 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="37" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="44"/>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="duplicateValues" dxfId="46" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="duplicateValues" dxfId="44" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="35" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="33" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="31" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="29" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="23" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="21" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="19" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="17" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="15" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="13" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:B33">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:B33">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K8 K10">
-    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="duplicateValues" dxfId="3" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3897,10 +4081,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3938,16 +4122,16 @@
         <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>15</v>
@@ -3961,49 +4145,49 @@
     </row>
     <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>24</v>
@@ -4011,25 +4195,25 @@
     </row>
     <row r="5" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>56</v>
@@ -4037,99 +4221,97 @@
     </row>
     <row r="6" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>204</v>
+      <c r="E7" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="22" t="s">
         <v>180</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>200</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="22" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="1" t="s">
-        <v>183</v>
+        <v>218</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="22" t="s">
+        <v>225</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>202</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>92</v>
@@ -4137,188 +4319,227 @@
     </row>
     <row r="10" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="22" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
       <c r="D10" s="22" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="22" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="22" t="s">
-        <v>223</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>225</v>
+      <c r="D13" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>198</v>
+        <v>203</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>226</v>
+      <c r="A14" s="22" t="s">
+        <v>187</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C14" s="19"/>
       <c r="D14" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>198</v>
+      <c r="E14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="22" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C15" s="19"/>
-      <c r="D15" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>230</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="22" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="F16" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E17" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="E17" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="F17" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I8 I10">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/imports/Herramienta.xlsx
+++ b/imports/Herramienta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Limpieza\LIMPIEZA_APP\sop_lavado_app\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E390F771-4D59-4712-8DCB-570532A2C784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE329C2F-96C9-47D4-81A3-4407C3D536F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="266">
   <si>
     <t>HE</t>
   </si>
@@ -532,9 +532,6 @@
     <t xml:space="preserve">Mop Vidrios </t>
   </si>
   <si>
-    <t>Mop Secado</t>
-  </si>
-  <si>
     <t>Base Mop</t>
   </si>
   <si>
@@ -797,6 +794,51 @@
   </si>
   <si>
     <t>FR-TA-001</t>
+  </si>
+  <si>
+    <t>HE-CE-004</t>
+  </si>
+  <si>
+    <t>Cepillo Plancha</t>
+  </si>
+  <si>
+    <t>KT-MS-001</t>
+  </si>
+  <si>
+    <t>Kit Mop Seco</t>
+  </si>
+  <si>
+    <t>Mopear</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>KT-SA-004</t>
+  </si>
+  <si>
+    <t>Kit Banquillo</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>Banquillo</t>
+  </si>
+  <si>
+    <t>Sacudir Banquillo</t>
+  </si>
+  <si>
+    <t>Kit Mop Humedo</t>
+  </si>
+  <si>
+    <t>KT-MH-001</t>
+  </si>
+  <si>
+    <t>Mop Humedo</t>
+  </si>
+  <si>
+    <t>FR-MH-001</t>
   </si>
 </sst>
 </file>
@@ -806,7 +848,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,6 +881,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -993,7 +1041,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1073,12 +1121,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1094,8 +1136,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1104,7 +1149,87 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="81">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1762,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="76" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A14" activeCellId="1" sqref="A25 A14"/>
+    <sheetView topLeftCell="A2" zoomScale="76" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2158,7 +2283,7 @@
         <v>91</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>69</v>
@@ -2672,7 +2797,7 @@
         <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>163</v>
+        <v>264</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>69</v>
@@ -2697,7 +2822,7 @@
         <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>69</v>
@@ -2722,7 +2847,7 @@
         <v>109</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>69</v>
@@ -2747,7 +2872,7 @@
         <v>118</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>69</v>
@@ -2772,7 +2897,7 @@
         <v>118</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>69</v>
@@ -2797,7 +2922,7 @@
         <v>45</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>69</v>
@@ -2822,7 +2947,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>69</v>
@@ -2847,7 +2972,7 @@
         <v>117</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>69</v>
@@ -2874,7 +2999,7 @@
         <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>69</v>
@@ -2901,7 +3026,7 @@
         <v>81</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>69</v>
@@ -2924,7 +3049,7 @@
         <v>81</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>69</v>
@@ -2947,7 +3072,7 @@
         <v>81</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>69</v>
@@ -2963,7 +3088,27 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="20"/>
+      <c r="A43" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="44" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
@@ -2975,54 +3120,57 @@
     <mergeCell ref="L1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A42">
+    <cfRule type="duplicateValues" dxfId="80" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A50">
+    <cfRule type="duplicateValues" dxfId="79" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="78" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="duplicateValues" dxfId="77" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="duplicateValues" dxfId="76" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36 A1:A3 A5:A33 A38:A1048576">
+    <cfRule type="duplicateValues" dxfId="75" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="duplicateValues" dxfId="74" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="duplicateValues" dxfId="73" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="duplicateValues" dxfId="71" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="7"/>
+    <cfRule type="duplicateValues" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="68" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="3"/>
+    <cfRule type="duplicateValues" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:J22">
+    <cfRule type="duplicateValues" dxfId="65" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:J22">
+    <cfRule type="duplicateValues" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:J28">
     <cfRule type="duplicateValues" dxfId="64" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="63" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="62" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="61" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36 A1:A3 A5:A33 A38:A1048576">
-    <cfRule type="duplicateValues" dxfId="60" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="59" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="58" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="56" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="6"/>
-    <cfRule type="duplicateValues" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
-    <cfRule type="duplicateValues" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:J22">
-    <cfRule type="duplicateValues" dxfId="50" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:J22">
-    <cfRule type="duplicateValues" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:J28">
-    <cfRule type="duplicateValues" dxfId="49" priority="11"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I3:J43">
-    <cfRule type="duplicateValues" dxfId="48" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:J24">
-    <cfRule type="duplicateValues" dxfId="47" priority="19"/>
-    <cfRule type="duplicateValues" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="20"/>
+    <cfRule type="duplicateValues" priority="21"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3033,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="88" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3056,15 +3204,15 @@
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="35"/>
+      <c r="H1" s="33"/>
       <c r="J1" s="27" t="s">
         <v>19</v>
       </c>
@@ -3090,7 +3238,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>15</v>
@@ -3104,7 +3252,7 @@
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>93</v>
@@ -3122,10 +3270,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>125</v>
@@ -3136,13 +3284,13 @@
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>23</v>
@@ -3154,10 +3302,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>196</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>126</v>
@@ -3168,7 +3316,7 @@
     </row>
     <row r="5" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>113</v>
@@ -3186,10 +3334,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>127</v>
@@ -3200,7 +3348,7 @@
     </row>
     <row r="6" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>33</v>
@@ -3218,10 +3366,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>128</v>
@@ -3232,13 +3380,13 @@
     </row>
     <row r="7" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>23</v>
@@ -3250,10 +3398,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>129</v>
@@ -3264,13 +3412,13 @@
     </row>
     <row r="8" spans="1:11" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>23</v>
@@ -3282,10 +3430,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>130</v>
@@ -3296,13 +3444,13 @@
     </row>
     <row r="9" spans="1:11" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>23</v>
@@ -3314,10 +3462,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>131</v>
@@ -3328,13 +3476,13 @@
     </row>
     <row r="10" spans="1:11" s="11" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>23</v>
@@ -3346,10 +3494,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>133</v>
@@ -3360,13 +3508,13 @@
     </row>
     <row r="11" spans="1:11" s="11" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
@@ -3378,10 +3526,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>134</v>
@@ -3392,13 +3540,13 @@
     </row>
     <row r="12" spans="1:11" s="11" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
@@ -3407,30 +3555,30 @@
         <v>122</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="11" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>23</v>
@@ -3442,27 +3590,27 @@
         <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="11" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>23</v>
@@ -3474,21 +3622,21 @@
         <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>23</v>
@@ -3500,21 +3648,21 @@
         <v>4</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>23</v>
@@ -3526,21 +3674,21 @@
         <v>4</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>23</v>
@@ -3552,21 +3700,21 @@
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>23</v>
@@ -3578,21 +3726,21 @@
         <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>23</v>
@@ -3604,21 +3752,21 @@
         <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>23</v>
@@ -3630,21 +3778,21 @@
         <v>6</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>23</v>
@@ -3656,21 +3804,21 @@
         <v>6</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>23</v>
@@ -3682,21 +3830,21 @@
         <v>6</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>23</v>
@@ -3705,24 +3853,24 @@
         <v>56</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>23</v>
@@ -3731,24 +3879,24 @@
         <v>56</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>23</v>
@@ -3757,24 +3905,24 @@
         <v>56</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>23</v>
@@ -3783,24 +3931,24 @@
         <v>56</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>23</v>
@@ -3809,24 +3957,24 @@
         <v>56</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>23</v>
@@ -3835,24 +3983,24 @@
         <v>121</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>23</v>
@@ -3861,24 +4009,24 @@
         <v>123</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>23</v>
@@ -3887,24 +4035,24 @@
         <v>121</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>23</v>
@@ -3913,24 +4061,24 @@
         <v>121</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="36" t="s">
-        <v>248</v>
+      <c r="A32" s="22" t="s">
+        <v>247</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>23</v>
@@ -3939,24 +4087,24 @@
         <v>39</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="36" t="s">
-        <v>248</v>
+      <c r="A33" s="22" t="s">
+        <v>247</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>23</v>
@@ -3965,18 +4113,192 @@
         <v>39</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1048575" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G1048575" s="1"/>
       <c r="H1048575" s="20"/>
@@ -3988,91 +4310,135 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B11">
-    <cfRule type="duplicateValues" dxfId="46" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="44" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="42" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="40" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="duplicateValues" dxfId="53" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="duplicateValues" dxfId="51" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="49" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="duplicateValues" dxfId="47" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="duplicateValues" dxfId="45" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="43" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="duplicateValues" dxfId="41" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
     <cfRule type="duplicateValues" dxfId="39" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="38" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="36" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="34" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="32" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="30" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="28" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="26" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="24" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="22" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="20" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="18" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:B33">
+    <cfRule type="duplicateValues" dxfId="25" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="duplicateValues" dxfId="23" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="duplicateValues" dxfId="20" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K8 K10">
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="duplicateValues" dxfId="16" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B33">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K8 K10">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
+  <conditionalFormatting sqref="B41">
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4083,8 +4449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4112,26 +4478,26 @@
         <v>20</v>
       </c>
       <c r="F1" s="24"/>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="30"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>15</v>
@@ -4145,20 +4511,20 @@
     </row>
     <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>125</v>
@@ -4169,22 +4535,22 @@
     </row>
     <row r="4" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>196</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>126</v>
@@ -4195,10 +4561,10 @@
     </row>
     <row r="5" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -4207,10 +4573,10 @@
         <v>136</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>127</v>
@@ -4221,22 +4587,22 @@
     </row>
     <row r="6" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>128</v>
@@ -4247,20 +4613,20 @@
     </row>
     <row r="7" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>129</v>
@@ -4271,20 +4637,20 @@
     </row>
     <row r="8" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>130</v>
@@ -4295,20 +4661,20 @@
     </row>
     <row r="9" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>131</v>
@@ -4319,22 +4685,22 @@
     </row>
     <row r="10" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>133</v>
@@ -4345,22 +4711,22 @@
     </row>
     <row r="11" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>134</v>
@@ -4371,175 +4737,210 @@
     </row>
     <row r="12" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="F15" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="F16" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="F17" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="F18" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>251</v>
+      <c r="A19" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="F19" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+    </row>
     <row r="22" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
+  <conditionalFormatting sqref="A3:A20 A22:A41">
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I3:I8 I10">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
